--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt2-Fzd3.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.415887</v>
+        <v>0.2272265</v>
       </c>
       <c r="N2">
-        <v>0.831774</v>
+        <v>0.454453</v>
       </c>
       <c r="O2">
-        <v>0.1274765705819998</v>
+        <v>0.08704083604617911</v>
       </c>
       <c r="P2">
-        <v>0.1197424607254622</v>
+        <v>0.08229687998280369</v>
       </c>
       <c r="Q2">
-        <v>0.238942885206</v>
+        <v>0.130550258857</v>
       </c>
       <c r="R2">
-        <v>1.433657311236</v>
+        <v>0.783301553142</v>
       </c>
       <c r="S2">
-        <v>0.1274765705819998</v>
+        <v>0.08704083604617911</v>
       </c>
       <c r="T2">
-        <v>0.1197424607254622</v>
+        <v>0.08229687998280369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>0.824174</v>
       </c>
       <c r="O3">
-        <v>0.08420786983230948</v>
+        <v>0.1052353694185077</v>
       </c>
       <c r="P3">
-        <v>0.1186483622064973</v>
+        <v>0.149249644656207</v>
       </c>
       <c r="Q3">
         <v>0.1578397605373333</v>
@@ -638,10 +638,10 @@
         <v>1.420557844836</v>
       </c>
       <c r="S3">
-        <v>0.08420786983230948</v>
+        <v>0.1052353694185077</v>
       </c>
       <c r="T3">
-        <v>0.1186483622064973</v>
+        <v>0.149249644656207</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42513</v>
+        <v>2.082377</v>
       </c>
       <c r="N4">
-        <v>4.85026</v>
+        <v>4.164754</v>
       </c>
       <c r="O4">
-        <v>0.7433443594426494</v>
+        <v>0.7976703203338269</v>
       </c>
       <c r="P4">
-        <v>0.6982450371835141</v>
+        <v>0.7541951755096822</v>
       </c>
       <c r="Q4">
-        <v>1.39332933994</v>
+        <v>1.196404716826</v>
       </c>
       <c r="R4">
-        <v>8.359976039640001</v>
+        <v>7.178428300956001</v>
       </c>
       <c r="S4">
-        <v>0.7433443594426494</v>
+        <v>0.7976703203338269</v>
       </c>
       <c r="T4">
-        <v>0.6982450371835141</v>
+        <v>0.7541951755096822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.125357</v>
+        <v>0.02610733333333333</v>
       </c>
       <c r="N5">
-        <v>0.376071</v>
+        <v>0.078322</v>
       </c>
       <c r="O5">
-        <v>0.03842409226171471</v>
+        <v>0.0100006122537187</v>
       </c>
       <c r="P5">
-        <v>0.05413930580600655</v>
+        <v>0.01418332860386696</v>
       </c>
       <c r="Q5">
-        <v>0.07202236006600002</v>
+        <v>0.01499965507866667</v>
       </c>
       <c r="R5">
-        <v>0.6482012405940001</v>
+        <v>0.134996895708</v>
       </c>
       <c r="S5">
-        <v>0.03842409226171471</v>
+        <v>0.0100006122537187</v>
       </c>
       <c r="T5">
-        <v>0.05413930580600655</v>
+        <v>0.01418332860386696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02135966666666667</v>
+        <v>0.000138</v>
       </c>
       <c r="N6">
-        <v>0.064079</v>
+        <v>0.000414</v>
       </c>
       <c r="O6">
-        <v>0.006547107881326709</v>
+        <v>5.286194776741585E-05</v>
       </c>
       <c r="P6">
-        <v>0.009224834078519996</v>
+        <v>7.49712474400669E-05</v>
       </c>
       <c r="Q6">
-        <v>0.01227194016733333</v>
+        <v>7.9286244E-05</v>
       </c>
       <c r="R6">
-        <v>0.110447461506</v>
+        <v>0.0007135761959999999</v>
       </c>
       <c r="S6">
-        <v>0.006547107881326709</v>
+        <v>5.286194776741585E-05</v>
       </c>
       <c r="T6">
-        <v>0.009224834078519996</v>
+        <v>7.49712474400669E-05</v>
       </c>
     </row>
   </sheetData>
